--- a/Planning/Tasks.xlsx
+++ b/Planning/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\hons-moorhouse-p\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1294EDDB-6BEF-42AE-A722-EAE87B0984A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FDD8E6-81E8-4CF3-8685-C5FCA6705BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="85">
   <si>
     <t>Priority</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Details</t>
   </si>
   <si>
-    <t>Project Planning</t>
-  </si>
-  <si>
     <t xml:space="preserve">   Defining Aims &amp; Objectives</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>Breaking down and sequencing project tasks to produce a Gantt chart of the project schedule.</t>
   </si>
   <si>
-    <t>Project Definition Document</t>
-  </si>
-  <si>
     <t>Background &amp; Purpose</t>
   </si>
   <si>
@@ -96,9 +90,6 @@
     <t>1 day</t>
   </si>
   <si>
-    <t>Final Report</t>
-  </si>
-  <si>
     <t>Introduction</t>
   </si>
   <si>
@@ -148,13 +139,334 @@
   </si>
   <si>
     <t>A section detailing the MSA problem to provide context for other report sections.</t>
+  </si>
+  <si>
+    <t>Testing Requirements (FRs &amp; NFRs)</t>
+  </si>
+  <si>
+    <t>Performing Study</t>
+  </si>
+  <si>
+    <t>Evaluation &amp; Writeup</t>
+  </si>
+  <si>
+    <t>Completed Software Evaluation</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>PDD</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>Evaluation</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>M-A</t>
+  </si>
+  <si>
+    <t>M-B</t>
+  </si>
+  <si>
+    <t>M-C</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>M-D</t>
+  </si>
+  <si>
+    <t>M-E</t>
+  </si>
+  <si>
+    <t>M-F</t>
+  </si>
+  <si>
+    <t>M-G</t>
+  </si>
+  <si>
+    <t>M-H</t>
+  </si>
+  <si>
+    <t>M-I</t>
+  </si>
+  <si>
+    <t>M-J</t>
+  </si>
+  <si>
+    <t>Sprint 1 Complete</t>
+  </si>
+  <si>
+    <t>Sprint 2 Complete</t>
+  </si>
+  <si>
+    <t>Sprint 3 Complete</t>
+  </si>
+  <si>
+    <t>Sprint 4 Complete</t>
+  </si>
+  <si>
+    <t>Sprint 5 Complete</t>
+  </si>
+  <si>
+    <t>Sprint 6 Complete</t>
+  </si>
+  <si>
+    <t>An evaluation of the project as a whole, follows all development sprints and software evaluation tasks.</t>
+  </si>
+  <si>
+    <t>2 weeks</t>
+  </si>
+  <si>
+    <t>3 weeks</t>
+  </si>
+  <si>
+    <t>5 weeks</t>
+  </si>
+  <si>
+    <t>3 days</t>
+  </si>
+  <si>
+    <t>1 week</t>
+  </si>
+  <si>
+    <t>6 months</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14th Oct, '24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - The Project Definition Document (PDD) has been completed.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>25th Oct, '24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - The literature review has been completed.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1st Apr, '25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - The Final Report has been completed, concluding the project.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">12th Nov, '24 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- MAli v0.1 is released - write about this</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">26th Nov, '24 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- MAli v0.2 is released - write about this</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10th Dec, '24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - MAli v1.0 is released - write about this</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">14th Jan, '25 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- MAli v1.1 is released - write about this</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>28th Jan, '25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - MAli v1.2 is released - write about this</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11th Feb, '25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - MAli v1.3 is released - write about this</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">4th Mar, '25 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Software requirements have been tested and a case study has been completed.</t>
+    </r>
+  </si>
+  <si>
+    <t>The requirements defined in 4.1 are tested using a university desktop computer.</t>
+  </si>
+  <si>
+    <t>The software is tested alongside alternatives using structural benchmarking to allow for comparison.</t>
+  </si>
+  <si>
+    <t>The results of 5.2 are used to comment on the performance and quality of the developed tool.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,8 +482,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,6 +548,33 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -206,10 +585,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -220,17 +602,35 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -509,254 +909,658 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F23"/>
+  <dimension ref="B2:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="34.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="95.7109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40" style="1" customWidth="1"/>
+    <col min="5" max="6" width="14.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="97.5703125" style="11" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="F20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="F33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>1</v>
+      <c r="F35" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Planning/Tasks.xlsx
+++ b/Planning/Tasks.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\hons-moorhouse-p\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FDD8E6-81E8-4CF3-8685-C5FCA6705BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AFB075-C794-4FA5-B4D8-7A4911C615BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Current" sheetId="4" r:id="rId1"/>
+    <sheet name="Current (2)" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="95">
   <si>
     <t>Priority</t>
   </si>
@@ -39,9 +40,6 @@
     <t xml:space="preserve">   Defining Aims &amp; Objectives</t>
   </si>
   <si>
-    <t xml:space="preserve">   Considering Ethics, Risks &amp; Mitigations</t>
-  </si>
-  <si>
     <t xml:space="preserve">   Work Breakdown + Gantt Chart</t>
   </si>
   <si>
@@ -57,18 +55,9 @@
     <t>Est. Duration</t>
   </si>
   <si>
-    <t>Defining a set of aims and objectives to inform the project direction.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Considering potential causes for ethical concern, documenting </t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
-    <t>Breaking down and sequencing project tasks to produce a Gantt chart of the project schedule.</t>
-  </si>
-  <si>
     <t>Background &amp; Purpose</t>
   </si>
   <si>
@@ -93,15 +82,6 @@
     <t>Introduction</t>
   </si>
   <si>
-    <t>Literature Review - Metaheuristics</t>
-  </si>
-  <si>
-    <t>Initial Reading for Literature Review</t>
-  </si>
-  <si>
-    <t>Literature Review - Approaches for MSA</t>
-  </si>
-  <si>
     <t>Literature Review Complete</t>
   </si>
   <si>
@@ -126,33 +106,12 @@
     <t>Software Design - UML Diagrams</t>
   </si>
   <si>
-    <t>Producing UML diagrams for high-level software design incl. Use Case, Package, Class diagrams.</t>
-  </si>
-  <si>
-    <t>Asking for feedback on literature review and design sections, then making revisions.</t>
-  </si>
-  <si>
-    <t>Asking for feedback on current PDD draft, then making revisions.</t>
-  </si>
-  <si>
-    <t>Asking for feedback on technical background and evaluation sections, then making revisions.</t>
-  </si>
-  <si>
-    <t>A section detailing the MSA problem to provide context for other report sections.</t>
-  </si>
-  <si>
-    <t>Testing Requirements (FRs &amp; NFRs)</t>
-  </si>
-  <si>
     <t>Performing Study</t>
   </si>
   <si>
     <t>Evaluation &amp; Writeup</t>
   </si>
   <si>
-    <t>Completed Software Evaluation</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
@@ -220,9 +179,6 @@
   </si>
   <si>
     <t>Sprint 6 Complete</t>
-  </si>
-  <si>
-    <t>An evaluation of the project as a whole, follows all development sprints and software evaluation tasks.</t>
   </si>
   <si>
     <t>2 weeks</t>
@@ -314,6 +270,27 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">4th Mar, '25 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Software requirements have been tested and a case study has been completed.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">12th Nov, '24 </t>
     </r>
     <r>
@@ -323,7 +300,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>- MAli v0.1 is released - write about this</t>
+      <t>- MAli v0.1 is released - a basic tool that produces low quality, but valid solutions for MSA.</t>
     </r>
   </si>
   <si>
@@ -344,7 +321,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>- MAli v0.2 is released - write about this</t>
+      <t>- MAli v0.2 is released - introducing a metaheuristic algorithm to guide the alignment.</t>
     </r>
   </si>
   <si>
@@ -365,7 +342,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> - MAli v1.0 is released - write about this</t>
+      <t xml:space="preserve"> - MAli v1.0 is released - an improvement on v0.2 and indicative of a full implementation.</t>
     </r>
   </si>
   <si>
@@ -386,7 +363,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>- MAli v1.1 is released - write about this</t>
+      <t>- MAli v1.1 is released - resulting from experimentation on the v1.0 design.</t>
     </r>
   </si>
   <si>
@@ -407,7 +384,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> - MAli v1.2 is released - write about this</t>
+      <t xml:space="preserve"> - MAli v1.2 is released - producing a selection of high-quality solutions as output.</t>
     </r>
   </si>
   <si>
@@ -428,45 +405,99 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> - MAli v1.3 is released - write about this</t>
+      <t xml:space="preserve"> - MAli v1.3 is released - fulfilling all functional and non-functional requirements.</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">4th Mar, '25 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- Software requirements have been tested and a case study has been completed.</t>
-    </r>
-  </si>
-  <si>
-    <t>The requirements defined in 4.1 are tested using a university desktop computer.</t>
-  </si>
-  <si>
-    <t>The software is tested alongside alternatives using structural benchmarking to allow for comparison.</t>
-  </si>
-  <si>
-    <t>The results of 5.2 are used to comment on the performance and quality of the developed tool.</t>
+    <t>Define a set of aims and objectives to inform the project direction.</t>
+  </si>
+  <si>
+    <t>Consider any causes for ethical concern. Document potential risks and appropriate mitigations.</t>
+  </si>
+  <si>
+    <t>Break down and sequence project tasks to produce a Gantt chart of the project schedule.</t>
+  </si>
+  <si>
+    <t>Write a section covering the project aims, objectives and scope. Define a set of deliverables.</t>
+  </si>
+  <si>
+    <t>Write a section conveying the benefits of the project and how it will be conducted.</t>
+  </si>
+  <si>
+    <t>Ask for feedback on current PDD draft, then make revisions.</t>
+  </si>
+  <si>
+    <t>Detail an account of how the project will be undertaken in terms of tasks and scheduling.</t>
+  </si>
+  <si>
+    <t>Ensure that the document is well-presented and coherent.</t>
+  </si>
+  <si>
+    <t>Write a section introducing the project including it's aims, objectives and context.</t>
+  </si>
+  <si>
+    <t>Conduct a literature search, reading papers and building an overall narrative for the review.</t>
+  </si>
+  <si>
+    <t>Read relevant articles and write about metaheuristics and their applications.</t>
+  </si>
+  <si>
+    <t>Read relevant articles and write about the history of MSA software and approaches.</t>
+  </si>
+  <si>
+    <t>Capture a discrete set of requirements to direct the design and development of the tool.</t>
+  </si>
+  <si>
+    <t>Produce UML diagrams as high-level software design incl. Use Case, Package, Class diagrams.</t>
+  </si>
+  <si>
+    <t>Write a section detailing the MSA problem to provide context for other report sections.</t>
+  </si>
+  <si>
+    <t>Evaluate the project as a whole, including comments on development and software testing.</t>
+  </si>
+  <si>
+    <t>Ask for feedback on technical background and evaluation sections, then make revisions.</t>
+  </si>
+  <si>
+    <t>Test defined function &amp; non-functional requirements using a university desktop computer.</t>
+  </si>
+  <si>
+    <t>Test the software alongside alternatives using structural benchmarking to allow for comparison.</t>
+  </si>
+  <si>
+    <t>Comment on the performance and quality of the developed tool.</t>
+  </si>
+  <si>
+    <t>Testing Requirements</t>
+  </si>
+  <si>
+    <t>Completed Software Eval.</t>
+  </si>
+  <si>
+    <t>Lit. Review - Metaheuristics</t>
+  </si>
+  <si>
+    <t>Lit. Review - MSA Approaches</t>
+  </si>
+  <si>
+    <t>Initial Reading &amp; Lit. Search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Considering Ethics and Risks</t>
+  </si>
+  <si>
+    <t>Ask for feedback on literature review and design sections, then make revisions.</t>
+  </si>
+  <si>
+    <t>Soft. Dev.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -499,12 +530,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -623,7 +648,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -908,19 +933,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A151E058-8DF6-4D42-9F87-528D49383484}">
   <dimension ref="B2:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" style="1" customWidth="1"/>
     <col min="5" max="6" width="14.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="97.5703125" style="11" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
@@ -928,19 +953,19 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>2</v>
@@ -948,7 +973,7 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1">
         <v>1.1000000000000001</v>
@@ -957,303 +982,330 @@
         <v>3</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1">
         <v>1.2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1">
         <v>1.3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1">
         <v>2.1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1">
         <v>2.2000000000000002</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
         <v>2.2999999999999998</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="G8" s="11" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1">
         <v>2.4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1">
         <v>2.5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1">
         <v>3.1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1">
         <v>3.2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>66</v>
+        <v>51</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1">
         <v>3.3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>67</v>
+        <v>52</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1">
         <v>3.4</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>67</v>
+        <v>52</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C17" s="1">
         <v>4.0999999999999996</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1">
         <v>4.2</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>2</v>
@@ -1261,306 +1313,889 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C21" s="1">
         <v>4.3</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C22" s="1">
         <v>4.4000000000000004</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C23" s="1">
         <v>4.5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C24" s="1">
         <v>4.5999999999999996</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="D25" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F31" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31" s="11" t="s">
         <v>66</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C32" s="1">
         <v>5.0999999999999996</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C33" s="1">
         <v>5.2</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1">
         <v>5.3</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F35" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F76532D-1DD3-40FD-BCE8-8C82071E0808}">
+  <dimension ref="B2:F35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="97.5703125" style="11" customWidth="1"/>
+    <col min="5" max="6" width="14.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="E3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>81</v>
       </c>
+      <c r="E22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Planning/Tasks.xlsx
+++ b/Planning/Tasks.xlsx
@@ -8,25 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\hons-moorhouse-p\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AFB075-C794-4FA5-B4D8-7A4911C615BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5493B652-C9A8-4516-AF07-2B674B0A51CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="4" r:id="rId1"/>
     <sheet name="Current (2)" sheetId="5" r:id="rId2"/>
+    <sheet name="DevBacklog" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="129">
   <si>
     <t>Priority</t>
   </si>
@@ -492,12 +504,114 @@
   <si>
     <t>Soft. Dev.</t>
   </si>
+  <si>
+    <t>Given sequences to align, produces a valid solution - independent of quality.</t>
+  </si>
+  <si>
+    <t>Can output aligned sets of sequences using an appropriate bioinformatics file format.</t>
+  </si>
+  <si>
+    <t>Can load a set of biological sequences from an appropriate bioinformatics file format.</t>
+  </si>
+  <si>
+    <t>Employs a metaheuristic algorithm (such as Genetic Algorithm) to guide the alignment process.</t>
+  </si>
+  <si>
+    <t>Makes use of an established scoring matrix in evaluating alignment states during optimization.</t>
+  </si>
+  <si>
+    <t>Demonstrates MSA using a single-state metaheuristic algorithm - such as Simulated Annealing.</t>
+  </si>
+  <si>
+    <t>Approximates the Pareto Front, outputting a set of solutions that offer different trade-offs.</t>
+  </si>
+  <si>
+    <t>Aligns sets of 6 typical protein sequences within 10 seconds on a university machine.</t>
+  </si>
+  <si>
+    <t>Consistently produces higher quality solutions than random selection of a candidate.</t>
+  </si>
+  <si>
+    <t>Consistently produces higher quality solutions than a greedy heuristic.</t>
+  </si>
+  <si>
+    <t>Supports batch alignment of a series of sets of sequences from a directory.</t>
+  </si>
+  <si>
+    <t>Produces alignments of a quality comparable to currently available alternatives.</t>
+  </si>
+  <si>
+    <t>Employs a heuristic to estimate a number of iterations needed to align each set of sequences.</t>
+  </si>
+  <si>
+    <t>Interface displays progress on the current alignment task - in terms of time or iterations.</t>
+  </si>
+  <si>
+    <t>Performs alignment with a time-efficiency comparable to currently available alternatives.</t>
+  </si>
+  <si>
+    <t>Dev-01</t>
+  </si>
+  <si>
+    <t>Dev-02</t>
+  </si>
+  <si>
+    <t>Dev-03</t>
+  </si>
+  <si>
+    <t>Dev-04</t>
+  </si>
+  <si>
+    <t>Dev-05</t>
+  </si>
+  <si>
+    <t>Dev-06</t>
+  </si>
+  <si>
+    <t>Dev-07</t>
+  </si>
+  <si>
+    <t>Dev-08</t>
+  </si>
+  <si>
+    <t>Dev-09</t>
+  </si>
+  <si>
+    <t>Dev-10</t>
+  </si>
+  <si>
+    <t>Dev-11</t>
+  </si>
+  <si>
+    <t>Dev-12</t>
+  </si>
+  <si>
+    <t>Dev-13</t>
+  </si>
+  <si>
+    <t>Dev-14</t>
+  </si>
+  <si>
+    <t>Dev-15</t>
+  </si>
+  <si>
+    <t>Dev-16</t>
+  </si>
+  <si>
+    <t>Leverages multiple objective functions to guide the alignment optimization process.</t>
+  </si>
+  <si>
+    <t>Rel. Cost</t>
+  </si>
+  <si>
+    <t>Software Functionality</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -543,6 +657,12 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -601,12 +721,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -616,7 +751,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -649,6 +784,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1620,8 +1770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F76532D-1DD3-40FD-BCE8-8C82071E0808}">
   <dimension ref="B2:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2198,4 +2348,273 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AB8C67-3874-4227-A714-894300E54B0B}">
+  <dimension ref="B2:E20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="92.140625" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="11"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="11"/>
+      <c r="E20" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>